--- a/doc/Design/Tracebility table.xlsx
+++ b/doc/Design/Tracebility table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaso\Desktop\Dunno\U\2°\Algoritmos\Semana 12\WetLands\doc\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D490B6D-9C6A-426D-9DEB-0B9F51C0B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540B6D2-5439-4F82-9E18-4927F1774EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{BCBF508B-5ACC-4281-98D0-3856CA6C967D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCBF508B-5ACC-4281-98D0-3856CA6C967D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>wetLandMaxNumWildLife</t>
+  </si>
+  <si>
+    <t>addWetLand</t>
+  </si>
+  <si>
+    <t>Calculate the wetlands with the largest amount of wildlife species</t>
+  </si>
+  <si>
+    <t>Count the wildlife species in wetland</t>
+  </si>
+  <si>
+    <t>Inform the user the name of the wetlands with fewer species of wildlife</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -768,6 +780,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,11 +797,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,24 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7982952E-ADD9-42A9-A7C7-1207B4196D9B}">
   <dimension ref="C1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1154,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="49"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="3:6" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="33" t="s">
@@ -1156,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1170,7 +1185,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1197,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="57"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1194,7 +1209,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="57"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1221,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="57"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1214,11 +1229,11 @@
         <v>9</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="57"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1245,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1257,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1269,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1268,7 +1283,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="54"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1307,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="54"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1319,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="54"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1331,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="54"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1343,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="54"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1355,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="54"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1367,7 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="54"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1379,7 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="54"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1391,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="54"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1403,7 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="55"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1415,7 @@
       </c>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="59" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1414,7 +1429,7 @@
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="51"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1441,7 @@
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="51"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1438,7 +1453,7 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="51"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1465,7 @@
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="51"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1462,7 +1477,7 @@
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="51"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
@@ -1474,7 +1489,7 @@
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="51"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
@@ -1486,7 +1501,7 @@
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="51"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1498,7 +1513,7 @@
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="51"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1525,7 @@
       </c>
     </row>
     <row r="32" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="52"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="10" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1537,7 @@
       </c>
     </row>
     <row r="33" spans="3:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1536,7 +1551,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="45"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="8" t="s">
         <v>54</v>
       </c>
@@ -1548,7 +1563,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="45"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1575,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="45"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="8" t="s">
         <v>56</v>
       </c>
@@ -1572,7 +1587,7 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="45"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="30" t="s">
         <v>57</v>
       </c>
@@ -1584,7 +1599,7 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="46"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="5" t="s">
         <v>58</v>
       </c>
@@ -1596,7 +1611,7 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="50" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -1610,7 +1625,7 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="45"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="8" t="s">
         <v>54</v>
       </c>
@@ -1622,7 +1637,7 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="45"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
       </c>
@@ -1634,7 +1649,7 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="45"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="37" t="s">
         <v>68</v>
       </c>
@@ -1646,7 +1661,7 @@
       </c>
     </row>
     <row r="43" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="46"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="39" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1673,7 @@
       </c>
     </row>
     <row r="44" spans="3:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="41" t="s">
@@ -1672,7 +1687,7 @@
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="45"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
@@ -1684,7 +1699,7 @@
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="45"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1711,7 @@
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="45"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="30" t="s">
         <v>77</v>
       </c>
@@ -1708,7 +1723,7 @@
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="45"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="43" t="s">
         <v>21</v>
       </c>
@@ -1720,19 +1735,19 @@
       </c>
     </row>
     <row r="49" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="46"/>
-      <c r="D49" s="47" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -1746,7 +1761,7 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="45"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="3" t="s">
         <v>54</v>
       </c>
@@ -1758,7 +1773,7 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="45"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="37" t="s">
         <v>83</v>
       </c>
@@ -1770,7 +1785,7 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="45"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="9" t="s">
         <v>84</v>
       </c>
@@ -1782,7 +1797,7 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="45"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="37" t="s">
         <v>85</v>
       </c>
@@ -1794,7 +1809,7 @@
       </c>
     </row>
     <row r="55" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="46"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="39" t="s">
         <v>87</v>
       </c>
@@ -1806,64 +1821,64 @@
       </c>
     </row>
     <row r="56" spans="3:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="E56" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="45"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="17" t="s">
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="45"/>
-      <c r="D58" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="45"/>
-      <c r="D59" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="37" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="46"/>
-      <c r="D60" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="40" t="s">
+      <c r="C60" s="52"/>
+      <c r="D60" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="49" t="s">
         <v>93</v>
       </c>
     </row>
